--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valev\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Productos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,156 +33,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>Producto_1</t>
-  </si>
-  <si>
-    <t>Producto_2</t>
-  </si>
-  <si>
-    <t>Producto_3</t>
-  </si>
-  <si>
-    <t>Producto_4</t>
-  </si>
-  <si>
-    <t>Producto_5</t>
-  </si>
-  <si>
-    <t>Producto_6</t>
-  </si>
-  <si>
-    <t>Producto_7</t>
-  </si>
-  <si>
-    <t>Producto_8</t>
-  </si>
-  <si>
-    <t>Producto_9</t>
-  </si>
-  <si>
-    <t>Producto_10</t>
-  </si>
-  <si>
-    <t>Producto_11</t>
-  </si>
-  <si>
-    <t>Producto_12</t>
-  </si>
-  <si>
-    <t>Producto_13</t>
-  </si>
-  <si>
-    <t>Producto_14</t>
-  </si>
-  <si>
-    <t>Producto_15</t>
-  </si>
-  <si>
-    <t>Producto_16</t>
-  </si>
-  <si>
-    <t>Producto_17</t>
-  </si>
-  <si>
-    <t>Producto_18</t>
-  </si>
-  <si>
-    <t>Producto_19</t>
-  </si>
-  <si>
-    <t>Producto_20</t>
-  </si>
-  <si>
-    <t>Producto_21</t>
-  </si>
-  <si>
-    <t>Producto_22</t>
-  </si>
-  <si>
-    <t>Producto_23</t>
-  </si>
-  <si>
-    <t>Producto_24</t>
-  </si>
-  <si>
-    <t>Producto_25</t>
-  </si>
-  <si>
-    <t>Producto_26</t>
-  </si>
-  <si>
-    <t>Producto_27</t>
-  </si>
-  <si>
-    <t>Producto_28</t>
-  </si>
-  <si>
-    <t>Producto_29</t>
-  </si>
-  <si>
-    <t>Producto_30</t>
-  </si>
-  <si>
-    <t>Producto_31</t>
-  </si>
-  <si>
-    <t>Producto_32</t>
-  </si>
-  <si>
-    <t>Producto_33</t>
-  </si>
-  <si>
-    <t>Producto_34</t>
-  </si>
-  <si>
-    <t>Producto_35</t>
-  </si>
-  <si>
-    <t>Producto_36</t>
-  </si>
-  <si>
-    <t>Producto_37</t>
-  </si>
-  <si>
-    <t>Producto_38</t>
-  </si>
-  <si>
-    <t>Producto_39</t>
-  </si>
-  <si>
-    <t>Producto_40</t>
-  </si>
-  <si>
-    <t>Producto_41</t>
-  </si>
-  <si>
-    <t>Producto_42</t>
-  </si>
-  <si>
-    <t>Producto_43</t>
-  </si>
-  <si>
-    <t>Producto_44</t>
-  </si>
-  <si>
-    <t>Producto_45</t>
-  </si>
-  <si>
-    <t>Producto_46</t>
-  </si>
-  <si>
-    <t>Producto_47</t>
-  </si>
-  <si>
-    <t>Producto_48</t>
-  </si>
-  <si>
-    <t>Producto_49</t>
-  </si>
-  <si>
-    <t>Producto_50</t>
-  </si>
-  <si>
     <t>Ropa</t>
   </si>
   <si>
@@ -191,13 +46,163 @@
   </si>
   <si>
     <t>Hogar</t>
+  </si>
+  <si>
+    <t>Calcetines</t>
+  </si>
+  <si>
+    <t>Blusa</t>
+  </si>
+  <si>
+    <t>Play-doo</t>
+  </si>
+  <si>
+    <t>Audifonos</t>
+  </si>
+  <si>
+    <t>Camisa</t>
+  </si>
+  <si>
+    <t>Cable USB</t>
+  </si>
+  <si>
+    <t>Calzones</t>
+  </si>
+  <si>
+    <t>Guantes</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>Gorro</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carro </t>
+  </si>
+  <si>
+    <t>Pantalon</t>
+  </si>
+  <si>
+    <t>Pilas</t>
+  </si>
+  <si>
+    <t>Libro_cocina</t>
+  </si>
+  <si>
+    <t>Libro_Drama</t>
+  </si>
+  <si>
+    <t>oso_peluche</t>
+  </si>
+  <si>
+    <t>Falda</t>
+  </si>
+  <si>
+    <t>Cocodrilo_peluche</t>
+  </si>
+  <si>
+    <t>Copa_vino</t>
+  </si>
+  <si>
+    <t>Libro_ficcion</t>
+  </si>
+  <si>
+    <t>Libro_infantil</t>
+  </si>
+  <si>
+    <t>Vaso_largo</t>
+  </si>
+  <si>
+    <t>Vaso_corto</t>
+  </si>
+  <si>
+    <t>Libro_novela</t>
+  </si>
+  <si>
+    <t>Cocina</t>
+  </si>
+  <si>
+    <t>Vestido</t>
+  </si>
+  <si>
+    <t>Adaptador</t>
+  </si>
+  <si>
+    <t>Juego_mesa</t>
+  </si>
+  <si>
+    <t>Tenedor</t>
+  </si>
+  <si>
+    <t>Cucharas</t>
+  </si>
+  <si>
+    <t>Cucharon</t>
+  </si>
+  <si>
+    <t>Sarten_chico</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Sarten_mediano</t>
+  </si>
+  <si>
+    <t>Libro_ingles</t>
+  </si>
+  <si>
+    <t>Jarra_chica</t>
+  </si>
+  <si>
+    <t>Libro_frances</t>
+  </si>
+  <si>
+    <t>Figura_accion</t>
+  </si>
+  <si>
+    <t>Plato_grande</t>
+  </si>
+  <si>
+    <t>Memoria_32GB</t>
+  </si>
+  <si>
+    <t>Popote_plastico</t>
+  </si>
+  <si>
+    <t>Cable_C</t>
+  </si>
+  <si>
+    <t>leggins_largo</t>
+  </si>
+  <si>
+    <t>Libro_ilatia</t>
+  </si>
+  <si>
+    <t>Muñeca_grande</t>
+  </si>
+  <si>
+    <t>Juguete_Disney</t>
+  </si>
+  <si>
+    <t>Libro_niño</t>
+  </si>
+  <si>
+    <t>Bebe_chico</t>
+  </si>
+  <si>
+    <t>Libro_diccionario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,11 +265,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -306,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,9 +351,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,14 +562,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,701 +589,701 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
       <c r="D2">
-        <v>33.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>33.979999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>97.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>83.84999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>83.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>98.18000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>98.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>86.72</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>51.68</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>20.52</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>51.32</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>35.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>35.340000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>36.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>36.979999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>11.07</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>45.82</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>64.87</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>87.59</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>60.41</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>95.84999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>95.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>68.84</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>48.69</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>66.55</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>77.41</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>91.22</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>17.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>63.06</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>32.59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>95.43000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>95.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>12.82</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>38.97</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>31.34</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>62.55</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>16.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <v>54.61</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>89.3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>43.95</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>85.98</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D36">
         <v>99.77</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>16.72</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>63.21</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>63.08</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>48.91</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D41">
         <v>85.38</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>12.45</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>10.46</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>27.07</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>67.67</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D46">
         <v>90.45</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>42.93</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>49.12</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D49">
         <v>49.82</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>30.21</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>19.14</v>
